--- a/Marin Babanov Testing Strategy Mcast App.xlsx
+++ b/Marin Babanov Testing Strategy Mcast App.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marin\Desktop\mcastapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marin\Desktop\MCAST FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A480DA8-A287-436E-A8A6-5C60631365E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782FB6F-7F36-47A9-B916-CECB140437AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="6165" windowWidth="25680" windowHeight="11910" xr2:uid="{564388AE-0409-4D5C-9353-34881DC48559}"/>
+    <workbookView xWindow="4155" yWindow="1350" windowWidth="27450" windowHeight="15600" xr2:uid="{564388AE-0409-4D5C-9353-34881DC48559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Page</t>
   </si>
@@ -66,46 +66,40 @@
     <t>Content Generated on page</t>
   </si>
   <si>
-    <t>IAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Load List of courses </t>
   </si>
   <si>
-    <t>Load 3 courses from IAS institute from the service in a list</t>
-  </si>
-  <si>
     <t>Load course information</t>
   </si>
   <si>
-    <t>IAS/0101</t>
-  </si>
-  <si>
     <t>Courses loaded from service</t>
   </si>
   <si>
     <t>List containing links forwarding to courses for each instititute through html</t>
   </si>
   <si>
-    <t>Load course information for each course in the IAS institute fro the service</t>
-  </si>
-  <si>
     <t>Course details loaded from service</t>
   </si>
   <si>
     <t>Back button</t>
   </si>
   <si>
-    <t>Loads the previous page (IAS page loaded)</t>
-  </si>
-  <si>
-    <t>IAS page Loaded</t>
-  </si>
-  <si>
-    <t>Loads the previous page (HOME page loaded)</t>
-  </si>
-  <si>
-    <t>HOME page loaded</t>
+    <t>Loads all courses of the respective instititute</t>
+  </si>
+  <si>
+    <t>Load course information for each course in the respective course</t>
+  </si>
+  <si>
+    <t>Back navigation working on all pages</t>
+  </si>
+  <si>
+    <t>All pages go back one step at a time until the home menu</t>
+  </si>
+  <si>
+    <t>Any Institute page</t>
+  </si>
+  <si>
+    <t>Any Institute and course page</t>
   </si>
 </sst>
 </file>
@@ -498,18 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64304575-95C3-47C7-B354-CC7121573616}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -577,63 +571,48 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
